--- a/output/Actor_01/classify_report_lstm.xlsx
+++ b/output/Actor_01/classify_report_lstm.xlsx
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -492,13 +492,13 @@
         <v>7</v>
       </c>
       <c r="B5">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
         <v>0.2222222222222222</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0.3636363636363636</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -509,13 +509,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -543,13 +543,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -577,16 +577,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.25</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="D10">
-        <v>0.25</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="E10">
-        <v>0.25</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.1309027777777778</v>
+        <v>0.2098214285714285</v>
       </c>
       <c r="C11">
-        <v>0.275</v>
+        <v>0.33125</v>
       </c>
       <c r="D11">
-        <v>0.1642045454545455</v>
+        <v>0.2465277777777778</v>
       </c>
       <c r="E11">
         <v>28</v>
@@ -611,13 +611,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.1408730158730159</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="C12">
-        <v>0.25</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="D12">
-        <v>0.1688311688311688</v>
+        <v>0.242063492063492</v>
       </c>
       <c r="E12">
         <v>28</v>

--- a/output/Actor_01/classify_report_lstm.xlsx
+++ b/output/Actor_01/classify_report_lstm.xlsx
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -492,13 +492,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -509,13 +509,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -543,13 +543,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -577,16 +577,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3214285714285715</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C10">
-        <v>0.3214285714285715</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D10">
-        <v>0.3214285714285715</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E10">
-        <v>0.3214285714285715</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.2098214285714285</v>
+        <v>0.1375</v>
       </c>
       <c r="C11">
-        <v>0.33125</v>
+        <v>0.30625</v>
       </c>
       <c r="D11">
-        <v>0.2465277777777778</v>
+        <v>0.1721230158730159</v>
       </c>
       <c r="E11">
         <v>28</v>
@@ -611,13 +611,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.2040816326530612</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="C12">
-        <v>0.3214285714285715</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D12">
-        <v>0.242063492063492</v>
+        <v>0.1808390022675737</v>
       </c>
       <c r="E12">
         <v>28</v>
